--- a/Data-after-cleanning-v2.xlsx
+++ b/Data-after-cleanning-v2.xlsx
@@ -429,7 +429,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -440,10 +440,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -466,19 +462,19 @@
   <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="37.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="42.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="57.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.53"/>
   </cols>
@@ -641,7 +637,7 @@
       <c r="E6" s="2" t="n">
         <v>1360.69</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="1" t="n">
         <v>134.562269372694</v>
       </c>
       <c r="G6" s="1" t="n">
